--- a/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
+++ b/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T10:43:57+00:00</t>
+    <t>2025-12-01T15:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
+++ b/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T15:11:53+00:00</t>
+    <t>2025-12-12T08:49:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
+++ b/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T08:49:52+00:00</t>
+    <t>2025-12-15T10:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
+++ b/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-15T10:46:18+00:00</t>
+    <t>2025-12-29T09:30:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
+++ b/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:30:07+00:00</t>
+    <t>2026-01-06T09:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
+++ b/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-06T09:52:49+00:00</t>
+    <t>2026-01-09T09:46:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
+++ b/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T09:46:42+00:00</t>
+    <t>2026-01-09T15:11:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
+++ b/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T15:11:14+00:00</t>
+    <t>2026-01-12T08:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
+++ b/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T08:14:34+00:00</t>
+    <t>2026-01-12T10:24:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
+++ b/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T10:24:42+00:00</t>
+    <t>2026-01-12T13:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
+++ b/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/ValueSet/EyeColorVS</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/ValueSet/EyeColorVS</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T13:47:14+00:00</t>
+    <t>2026-01-15T15:19:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
+++ b/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T15:19:04+00:00</t>
+    <t>2026-01-16T10:54:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
+++ b/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T10:54:22+00:00</t>
+    <t>2026-01-21T08:55:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
+++ b/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T08:55:38+00:00</t>
+    <t>2026-01-21T09:19:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
+++ b/ajout-ST/ig/ValueSet-EyeColorVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T09:19:10+00:00</t>
+    <t>2026-01-23T10:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
